--- a/Chapter 7/Ch07_Tazer Corp.xlsx
+++ b/Chapter 7/Ch07_Tazer Corp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5509 Summer 2024/Chapter 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BF1A10-E4E9-B447-8908-EAE91E4A20BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B8D770-F2C9-3146-8DEC-77C9A13EFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,16 +188,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -211,8 +205,19 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -399,55 +404,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,80 +758,81 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="8.83203125" style="3"/>
     <col min="9" max="9" width="3.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="7" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="6" t="s">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="9">
         <v>400</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="9">
         <v>300</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="9">
         <v>600</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="9">
         <v>500</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="9">
         <v>200</v>
       </c>
       <c r="H5" s="3">
@@ -839,148 +842,148 @@
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="10">
         <v>1200</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="13">
         <v>0.5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="13">
         <v>0.35</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="13">
         <v>0.35</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="13">
         <v>0.2</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="13">
         <v>0.45</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="9">
         <v>1400</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="9">
         <v>1200</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="9">
         <v>2200</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="9">
         <v>3000</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="9">
         <v>600</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="14">
         <f>C7*C6-C5</f>
         <v>300</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="14">
         <f>D7*D6-D5</f>
         <v>120</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="14">
         <f>E7*E6-E5</f>
         <v>170</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="14">
         <f>F7*F6-F5</f>
         <v>100</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="14">
         <f>G7*G6-G5</f>
         <v>70</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <f>SUMPRODUCT(ExpectedProfit,DoProject?)</f>
         <v>540</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="L9" s="10" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="L9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="17">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L11" s="12" t="s">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="20" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
